--- a/牛顿迭代法结果.xlsx
+++ b/牛顿迭代法结果.xlsx
@@ -34,7 +34,7 @@
     <t>x**3 - 2*x - 5</t>
   </si>
   <si>
-    <t>迭代次数为：15，x的值为2.0945514815423265</t>
+    <t>迭代次数为：10，x的值为2.0945514815423265</t>
   </si>
   <si>
     <t>第2题</t>
@@ -43,7 +43,7 @@
     <t>x**3 - x - 1</t>
   </si>
   <si>
-    <t>迭代次数为：24，x的值为1.324717957244746</t>
+    <t>迭代次数为：6，x的值为1.324717957244746</t>
   </si>
   <si>
     <t>第3题</t>
@@ -52,7 +52,7 @@
     <t>x**3 + 4*x**2 - 10</t>
   </si>
   <si>
-    <t>迭代次数为：30，x的值为1.3652300139161466</t>
+    <t>迭代次数为：3，x的值为1.3652300139161466</t>
   </si>
   <si>
     <t>第4题</t>
@@ -61,7 +61,7 @@
     <t>x*exp(x) - 1</t>
   </si>
   <si>
-    <t>迭代次数为：39，x的值为0.567143290409784</t>
+    <t>迭代次数为：6，x的值为0.567143290409784</t>
   </si>
   <si>
     <t>第5题</t>
@@ -70,7 +70,7 @@
     <t>exp(x)</t>
   </si>
   <si>
-    <t>迭代次数为：789，x的值为-744.9035877513948</t>
+    <t>迭代次数为：747，x的值为-744.9035877513948</t>
   </si>
 </sst>
 </file>
